--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77EB315C-C619-4727-81ED-13716E8820A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{77EB315C-C619-4727-81ED-13716E8820A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE1B6E-BDF0-4305-BD97-03FEA9D014DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Quiz,Worksheet</t>
+  </si>
+  <si>
+    <t>Flashcards</t>
+  </si>
+  <si>
+    <t>Science</t>
   </si>
 </sst>
 </file>
@@ -347,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -396,4 +421,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E58A6E-1426-4824-BD77-442A6AD916B1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{77EB315C-C619-4727-81ED-13716E8820A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAE1B6E-BDF0-4305-BD97-03FEA9D014DE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{77EB315C-C619-4727-81ED-13716E8820A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24305AC3-5C3A-445F-AC12-1031748A6355}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Grade</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>Grade Subjects Contents 1 English Quiz 1 Math Quiz,Worksheet 2 Science Flashcards</t>
   </si>
 </sst>
 </file>
@@ -105,6 +108,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +435,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
